--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf1-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf1-Bmpr1a.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N2">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O2">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P2">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q2">
-        <v>0.3241919668377777</v>
+        <v>0.1597850370197778</v>
       </c>
       <c r="R2">
-        <v>2.91772770154</v>
+        <v>1.438065333178</v>
       </c>
       <c r="S2">
-        <v>0.07693591878451188</v>
+        <v>0.03946985606179569</v>
       </c>
       <c r="T2">
-        <v>0.07693591878451188</v>
+        <v>0.03946985606179568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>102.158321</v>
       </c>
       <c r="O3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q3">
         <v>2.323920187957111</v>
@@ -632,10 +632,10 @@
         <v>20.915281691614</v>
       </c>
       <c r="S3">
-        <v>0.551503285495726</v>
+        <v>0.5740512192416045</v>
       </c>
       <c r="T3">
-        <v>0.551503285495726</v>
+        <v>0.5740512192416045</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q4">
         <v>1.537548472802222</v>
@@ -694,10 +694,10 @@
         <v>13.83793625522</v>
       </c>
       <c r="S4">
-        <v>0.3648847489486206</v>
+        <v>0.3798028779254582</v>
       </c>
       <c r="T4">
-        <v>0.3648847489486206</v>
+        <v>0.3798028779254582</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,7 +729,7 @@
         <v>0.006676046771141624</v>
       </c>
       <c r="J5">
-        <v>0.006676046771141625</v>
+        <v>0.006676046771141624</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N5">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O5">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P5">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q5">
-        <v>0.002178866951111111</v>
+        <v>0.001073901799111111</v>
       </c>
       <c r="R5">
-        <v>0.01960980256</v>
+        <v>0.009665116192000001</v>
       </c>
       <c r="S5">
-        <v>0.0005170798413917002</v>
+        <v>0.0002652735839725247</v>
       </c>
       <c r="T5">
-        <v>0.0005170798413917003</v>
+        <v>0.0002652735839725246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,7 +791,7 @@
         <v>0.006676046771141624</v>
       </c>
       <c r="J6">
-        <v>0.006676046771141625</v>
+        <v>0.006676046771141624</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>102.158321</v>
       </c>
       <c r="O6">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P6">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q6">
-        <v>0.01561887218844445</v>
+        <v>0.01561887218844444</v>
       </c>
       <c r="R6">
         <v>0.140569849696</v>
       </c>
       <c r="S6">
-        <v>0.003706607211514058</v>
+        <v>0.003858149978393661</v>
       </c>
       <c r="T6">
-        <v>0.003706607211514058</v>
+        <v>0.003858149978393661</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,7 +853,7 @@
         <v>0.006676046771141624</v>
       </c>
       <c r="J7">
-        <v>0.006676046771141625</v>
+        <v>0.006676046771141624</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O7">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P7">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q7">
         <v>0.01033373400888889</v>
@@ -880,10 +880,10 @@
         <v>0.09300360608000001</v>
       </c>
       <c r="S7">
-        <v>0.002452359718235866</v>
+        <v>0.002552623208775438</v>
       </c>
       <c r="T7">
-        <v>0.002452359718235867</v>
+        <v>0.002552623208775438</v>
       </c>
     </row>
   </sheetData>
